--- a/biology/Botanique/Taraxacum_kok-saghyz/Taraxacum_kok-saghyz.xlsx
+++ b/biology/Botanique/Taraxacum_kok-saghyz/Taraxacum_kok-saghyz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taraxacum kok-saghyz, le pissenlit de Russie, est une espèce de plantes dicotylédones de la famille des Asteraceae (Compositeae), de la sous-famille des Cichorioideae, originaire d'Asie centrale. C'est une plante herbacée vivace au système racinaire pivotant, qui produit un latex de haute qualité. La plante a été utilisée en Russie pendant la Seconde Guerre mondiale pour produire du caoutchouc.
 </t>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 novembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 novembre 2019) :
 Taraxacum bicorne Boiss.
-Taraxacum brevicorniculatum Korol.[1]
+Taraxacum brevicorniculatum Korol.
 Taraxacum koksaghyz (mal orthographié)</t>
         </is>
       </c>
